--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\Inteijj project\SLN-Pilot-1.2.0.1\SLN-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CE4CC-23ED-40FA-A45F-47AFEBBA4B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>lang_code</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Text File</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>xml</t>
   </si>
   <si>
@@ -66,19 +64,13 @@
   </si>
   <si>
     <t>html file</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>ara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,6 +84,12 @@
       <name val="Cambria"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -124,11 +122,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -137,7 +165,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,19 +456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -453,166 +492,54 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>